--- a/biology/Botanique/Stramenopiles_(classification_phylogénétique)/Stramenopiles_(classification_phylogénétique).xlsx
+++ b/biology/Botanique/Stramenopiles_(classification_phylogénétique)/Stramenopiles_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Stramenopiles (Heterokonta, Hétérocontes, Straménopiles), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -921,7 +935,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -939,12 +953,49 @@
           <t>Débat scientifique relatif à la phylogénie des Stramenopiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La monophylie du groupe des Chromistes n'est pas avérée. Les seuls Straménopiles pourraient être plus proches parents des Alvéolés, voire des Rhizaires, que des Haptophytes et Cryptophytes. 
 Au sein des Straménopiles, groupe récent réunissant des Algues et des taxons autrefois classés parmi les Champignons, la principale question est celle de l'acquisition de chloroplastes chez les Hétérocontophytes (ou Ochrophytes) ou, au contraire, de leur perte dans les autres taxons.
-Classification selon Cavalier-Smith 1998
-Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Stramenopiles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification selon Cavalier-Smith 1998</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classification n'est pas à proprement parler phylogénétique. Basée sur les nouvelles phylogénies, elle maintient néanmoins des taxons paraphylétiques, notamment à la base des lignées évolutives, par commodité. Elle maintient également les niveaux traditionnels de classification (règnes, phyla, classes, etc.).
 Classification selon Cavalier-Smith 1998
 ▲
 infra-règne des Heterokonta
@@ -968,8 +1019,43 @@
 sous-embranchement des Bigyromonada
 sous-embranchement des Pseudofungi
 sous-embranchement des Opalinata
-Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Stramenopiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Débat scientifique relatif à la phylogénie des Stramenopiles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Stramenopiles.
 Classification proposée par Adl et al. 2005
 ▲
 Stramenopiles
@@ -1039,45 +1125,184 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Sources bibliographiques de référence
-Sina M. Adl et alii (2005) « « The New Higher Level Classification of Eukaryotes »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) », J. Eukaryot. Microbiol., 52 (5), p. 399–451 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sina M. Adl et alii (2005) « « The New Higher Level Classification of Eukaryotes »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?) », J. Eukaryot. Microbiol., 52 (5), p. 399–451 
 Kirill A. Mikrjukov et David J. Patterson (2001) « Taxonomy and Phylogeny of Heliozoa. III. Actinophryids »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?), Acta Protozool., 40, p. 3-25
-Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, p. 203-266 
-Autres sources bibliographiques
-Cabioc'h, J., Floc'h, J.-Y., Le Toquin, A., Boudouresque, C.F., 2006. Guide des algues des mers d'Europe, Delachaux et Niestlé (éd.).  (ISBN 260301384X).
-Bruno de Reviers, Biologie et phylogénie des algues, vol. 2 : tome 2, Paris, Belin, coll. « Belin Sup Sciences / Biologie », février 2003, 256 p. [détail de l’édition] (ISBN 2-7011-3512-5, ISSN 1158-3762)
-Sources internet
-Algaebase.org
-Chromista (Univ Paris XI)
-Liens internes
-Arbre phylogénétique
+Thomas Cavalier-Smith (1998) « A revised six-kingdom system of life », Biological reviews 73, p. 203-266 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cabioc'h, J., Floc'h, J.-Y., Le Toquin, A., Boudouresque, C.F., 2006. Guide des algues des mers d'Europe, Delachaux et Niestlé (éd.).  (ISBN 260301384X).
+Bruno de Reviers, Biologie et phylogénie des algues, vol. 2 : tome 2, Paris, Belin, coll. « Belin Sup Sciences / Biologie », février 2003, 256 p. [détail de l’édition] (ISBN 2-7011-3512-5, ISSN 1158-3762)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Algaebase.org
+Chromista (Univ Paris XI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stramenopiles_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stramenopiles_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Chromista -- Laminaire -- Diatomée -- Mildiou (Oomycota)
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
